--- a/biology/Zoologie/Baker_(singe_écureuil)/Baker_(singe_écureuil).xlsx
+++ b/biology/Zoologie/Baker_(singe_écureuil)/Baker_(singe_écureuil).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baker_(singe_%C3%A9cureuil)</t>
+          <t>Baker_(singe_écureuil)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baker (1957-1984), est une femelle singe écureuil. Elle est connue pour être l'un des premiers animaux à avoir effectué un vol suborbital. Elle a effectué ce vol en compagnie d'un autre singe, Able, un macaque rhésus, qui mourut quatre jours après son vol après une opération chirurgicale destinée à retirer une électrode[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baker (1957-1984), est une femelle singe écureuil. Elle est connue pour être l'un des premiers animaux à avoir effectué un vol suborbital. Elle a effectué ce vol en compagnie d'un autre singe, Able, un macaque rhésus, qui mourut quatre jours après son vol après une opération chirurgicale destinée à retirer une électrode.
 Ils ont été lancés par un missile intercontinental Jupiter reconfiguré pour les accueillir en vol sub-orbital le 28 mai 1959. Ils sont tous les deux revenus vivants après avoir encaissé 38 g pendant la ré-entrée.
 Elle a par la suite vécu au sein de l'United States Space and Rocket Center à Hunstsville dans l'Alabama.
 </t>
